--- a/Data Files/End_2_End/FDR_End_End_Voucher.xlsx
+++ b/Data Files/End_2_End/FDR_End_End_Voucher.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fdr-automation-develop_08_25_2020\Data Files\End_2_End\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FDR-Katalon-Regression\Data Files\End_2_End\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23991978-750D-4AFF-81BA-CB974FE66F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315DCAF5-C982-468E-8478-37ED8E122320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1815" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,11 +688,11 @@
         <v>45</v>
       </c>
       <c r="B2" s="8">
-        <v>44104</v>
+        <v>44116</v>
       </c>
       <c r="C2" s="8">
         <f>B2+2</f>
-        <v>44106</v>
+        <v>44118</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>27</v>
@@ -726,19 +726,19 @@
       </c>
       <c r="N2" s="8">
         <f t="shared" ref="N2:Q2" ca="1" si="0">TODAY()</f>
-        <v>44092</v>
+        <v>44098</v>
       </c>
       <c r="O2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44092</v>
+        <v>44098</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44092</v>
+        <v>44098</v>
       </c>
       <c r="Q2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44092</v>
+        <v>44098</v>
       </c>
       <c r="R2" s="5">
         <v>100000</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="AD2" s="13">
         <f ca="1">TODAY()</f>
-        <v>44092</v>
+        <v>44098</v>
       </c>
     </row>
   </sheetData>
